--- a/testFile.xlsx
+++ b/testFile.xlsx
@@ -13329,7 +13329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1801"/>
+  <dimension ref="A1:E2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -60218,6 +60218,7814 @@
       <c r="E1801" t="inlineStr">
         <is>
           <t>24028104</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>22- معدل الباحثين عن عمل حسب فئات السن والجنس</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22-  Unemployment rate by Age Group and Sex </t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 - 24</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 - 29</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>40 and Above</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Total</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوليو  - July   </t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Rate.</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>8.00469392181617</v>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>5.6*</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>2.023427112952845</v>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>1.030715118594619</v>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>0.03121774986702148</v>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>2.452468111944302</v>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>16.23725794213704</v>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>23.72925698908656</v>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>8.635043364424808</v>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>G14</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>3.807639853051395</v>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>0.1184477701737234</v>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>G16</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>8.996470784253336</v>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>6.335371319250271</v>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>1.667882026688241</v>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>H13</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>0.4747999108851832</v>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>0.3568777224224752</v>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>H15</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>0.01445334730490239</v>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>H16</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>1.037184571026423</v>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يونيو  - June   </t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>I14</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>I16</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>J11</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>J12</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>J14</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>J15</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>J16</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>K8</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>K9</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>معدل</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>K11</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>0.03929913010844435</v>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>K16</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>البيان</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>الفئة العمرية</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>N11</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>15 - 24</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>N12</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>25 - 29</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>N13</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>N14</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>N15</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 فـأعلـــى</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>N16</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجملة </t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>*: Preliminary</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>Source: NCSI</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>N18</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>*: أولي</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>N19</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>المصدر: المركز الوطني للإحصاء والمعلومات</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>23- معدل الباحثين* عن عمل وفقاً للمستوى التعليمي</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23- Unemployment rate by Education Status </t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>Level of Educational</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>Less then General Diploma</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>General Diploma</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>C32</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>University Diploma</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>C34</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>Master Degree, ph.D</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Total</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>C36</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>*: Unemployed persons devided by Labour Force</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>Source: NCSI</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>F23</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>F25</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوليو  - July   </t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>F26</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>F27</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>F28</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Rate.</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>F30</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>0.3821009858080242</v>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>F31</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>3.976631020124091</v>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>F32</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>9.388004934909118</v>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>F33</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>9.913569821039871</v>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>F34</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>0.3399785285785472</v>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>F35</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>2.452468111944302</v>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>G26</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>G27</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>G30</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>0.4592765060459564</v>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>G31</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>10.84226929001564</v>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>G32</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>18.20326469870214</v>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>G33</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>18.47596847961159</v>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>G34</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>1.033139881715069</v>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>G35</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>8.996470784253336</v>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>H26</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>H27</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>H30</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>0.3719957378944811</v>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>H31</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>2.612542346009899</v>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>H32</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>3.503590066272644</v>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>H33</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>2.802794799556584</v>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>H34</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>0.05475091106713537</v>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>H35</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>1.037184571026423</v>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>I25</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يونيو  - June   </t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>I26</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>I27</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>I30</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>0.277239822419576</v>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>I31</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>3.384293949382498</v>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>I32</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>8.463657011682866</v>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>I33</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>8.750414726585086</v>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>I34</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>0.3152936303695556</v>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>I35</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>2.093024870208248</v>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>J27</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>J30</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>0.4642199400551031</v>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>J31</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>10.37570071337432</v>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>J32</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>17.24135996231512</v>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>J33</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>16.99203336415631</v>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>J34</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>0.9329742621985753</v>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>J35</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>8.353453646551358</v>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>K26</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>K27</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>K28</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>معدل</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>0.2533557269229224</v>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>K31</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>2.02986035112841</v>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>K32</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>2.778668177828131</v>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>K33</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>2.15743948482604</v>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>K34</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>0.06793211335285045</v>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>0.7796691838563233</v>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>N23</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>البيان</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>N29</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>المستوى التعليمي</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>N30</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>ما دون دبلوم التعليم العام</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>N31</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>دبلوم التعليم العام وما يعادله</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>N32</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>الدبلوم الجامعي</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>N33</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>جامعي</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>N34</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>ماجستير ودكتوراه</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>N35</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجملة </t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>N36</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>*: عدد المتعطلين عن عمل مقسوماً على قوة العمل</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>N37</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>المصدر: المركز الوطني للإحصاء والمعلومات</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:32</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>24027204</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>22- معدل الباحثين عن عمل حسب فئات السن والجنس</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22-  Unemployment rate by Age Group and Sex </t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 - 24</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 - 29</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>40 and Above</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>C16</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Total</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوليو  - July   </t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>Rate.</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>8.00469392181617</v>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>5.6*</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>F13</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>2.023427112952845</v>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>F14</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>1.030715118594619</v>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>0.03121774986702148</v>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>F16</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>2.452468111944302</v>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>16.23725794213704</v>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>23.72925698908656</v>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>8.635043364424808</v>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>G14</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>3.807639853051395</v>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>0.1184477701737234</v>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>G16</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>8.996470784253336</v>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>6.335371319250271</v>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>1.667882026688241</v>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>H13</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>0.4747999108851832</v>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>0.3568777224224752</v>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>H15</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>0.01445334730490239</v>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>H16</t>
+        </is>
+      </c>
+      <c r="C1988" t="n">
+        <v>1.037184571026423</v>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يونيو  - June   </t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>I14</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>I16</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>J11</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>J12</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>J14</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>J15</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>J16</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>K8</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>K9</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>معدل</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>K11</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>0.03929913010844435</v>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>K16</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>البيان</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>الفئة العمرية</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>N11</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>15 - 24</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>N12</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>25 - 29</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>N13</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 - 34</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>N14</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35 - 39</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>N15</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 فـأعلـــى</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>N16</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجملة </t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>*: Preliminary</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>C19</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>Source: NCSI</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>N18</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>*: أولي</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>N19</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>المصدر: المركز الوطني للإحصاء والمعلومات</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>C21</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>23- معدل الباحثين* عن عمل وفقاً للمستوى التعليمي</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23- Unemployment rate by Education Status </t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>C23</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>C29</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>Level of Educational</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>Less then General Diploma</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>C31</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>General Diploma</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>C32</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>University Diploma</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>C34</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>Master Degree, ph.D</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Total</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>C36</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>*: Unemployed persons devided by Labour Force</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>Source: NCSI</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>F23</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>F25</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوليو  - July   </t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>F26</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>F27</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>F28</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>Rate.</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>F30</t>
+        </is>
+      </c>
+      <c r="C2044" t="n">
+        <v>0.3821009858080242</v>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>F31</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>3.976631020124091</v>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>F32</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>9.388004934909118</v>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>F33</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>9.913569821039871</v>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>F34</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>0.3399785285785472</v>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>F35</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>2.452468111944302</v>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>G26</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>G27</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>G30</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>0.4592765060459564</v>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>G31</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>10.84226929001564</v>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>G32</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>18.20326469870214</v>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>G33</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>18.47596847961159</v>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>G34</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>1.033139881715069</v>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>G35</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>8.996470784253336</v>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>H26</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>H27</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>H30</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>0.3719957378944811</v>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>H31</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>2.612542346009899</v>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>H32</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>3.503590066272644</v>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>H33</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>2.802794799556584</v>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>H34</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>0.05475091106713537</v>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>H35</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>1.037184571026423</v>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>I25</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يونيو  - June   </t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>I26</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>الجملة</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>I27</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>I30</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>0.277239822419576</v>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>I31</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>3.384293949382498</v>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>I32</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>8.463657011682866</v>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>I33</t>
+        </is>
+      </c>
+      <c r="C2072" t="n">
+        <v>8.750414726585086</v>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>I34</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>0.3152936303695556</v>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>I35</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>2.093024870208248</v>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>إناث</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>J27</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>J30</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>0.4642199400551031</v>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>J31</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>10.37570071337432</v>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>J32</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>17.24135996231512</v>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>J33</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>16.99203336415631</v>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>J34</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>0.9329742621985753</v>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>J35</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>8.353453646551358</v>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>K26</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>ذكور</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>K27</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>K28</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>معدل</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C2086" t="n">
+        <v>0.2533557269229224</v>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>K31</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>2.02986035112841</v>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>K32</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>2.778668177828131</v>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>K33</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>2.15743948482604</v>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>K34</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>0.06793211335285045</v>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>0.7796691838563233</v>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>N23</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>البيان</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>N29</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>المستوى التعليمي</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>N30</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>ما دون دبلوم التعليم العام</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>N31</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>دبلوم التعليم العام وما يعادله</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>N32</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>الدبلوم الجامعي</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>N33</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>جامعي</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>N34</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>ماجستير ودكتوراه</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>N35</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الجملة </t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>N36</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>*: عدد المتعطلين عن عمل مقسوماً على قوة العمل</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>24027851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>N37</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>المصدر: المركز الوطني للإحصاء والمعلومات</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>24/02/2021 10:03:42</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>24027851</t>
         </is>
       </c>
     </row>
